--- a/MDT/DienstenCatalogus/Producten-VoorregistratieEenT.xlsx
+++ b/MDT/DienstenCatalogus/Producten-VoorregistratieEenT.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>PROD_CODE</t>
   </si>
@@ -27,60 +27,21 @@
     <t>PROD_OMS</t>
   </si>
   <si>
-    <t>NORM_TYD_ADM</t>
-  </si>
-  <si>
-    <t>PROD_RDW_PROD_D</t>
-  </si>
-  <si>
-    <t>SRT_WERK_INSTR</t>
-  </si>
-  <si>
-    <t>WERK_INSTR_VNR</t>
-  </si>
-  <si>
     <t>PROC_ID_PROD</t>
   </si>
   <si>
     <t>SOORT_PROD</t>
   </si>
   <si>
-    <t>B_DAT_PROD</t>
-  </si>
-  <si>
-    <t>E_DAT_PROD</t>
-  </si>
-  <si>
-    <t>PROD_KLAS</t>
-  </si>
-  <si>
-    <t>ART_SL_KAPSTOK</t>
-  </si>
-  <si>
-    <t>STEEK_PR_P_PROD</t>
-  </si>
-  <si>
-    <t>MAX_ST_PR_PROD</t>
-  </si>
-  <si>
-    <t>SCH_T_WO_PROD</t>
-  </si>
-  <si>
     <t>ORG_OND_PROD</t>
   </si>
   <si>
-    <t>TYD_STEMPEL</t>
-  </si>
-  <si>
     <t>PRES_GROEP_PROD</t>
   </si>
   <si>
     <t>PRES_VNR_PROD</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -139,6 +100,39 @@
   </si>
   <si>
     <t>Wijzigen status erkenningsproduct</t>
+  </si>
+  <si>
+    <t>[ProductenEenT]</t>
+  </si>
+  <si>
+    <t>ProductVrs</t>
+  </si>
+  <si>
+    <t>omschrijving</t>
+  </si>
+  <si>
+    <t>ProductOmschrijving</t>
+  </si>
+  <si>
+    <t>procID</t>
+  </si>
+  <si>
+    <t>ProcID</t>
+  </si>
+  <si>
+    <t>organisatieOnd</t>
+  </si>
+  <si>
+    <t>OrganisatieOnderdeel</t>
+  </si>
+  <si>
+    <t>bron</t>
+  </si>
+  <si>
+    <t>Bron</t>
+  </si>
+  <si>
+    <t>VET</t>
   </si>
 </sst>
 </file>
@@ -282,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,6 +454,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -623,8 +623,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -970,19 +971,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H2" sqref="H2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -999,577 +1001,278 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2675</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="C5">
+        <v>2664</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="C6">
+        <v>2666</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>2678</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
+      <c r="C8">
+        <v>2665</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>2676</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2">
-        <v>2675</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>20110520</v>
-      </c>
-      <c r="J2">
-        <v>29991231</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2">
-        <v>999</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="C10">
+        <v>2663</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="Q2">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>2677</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="R2">
-        <v>4</v>
-      </c>
-      <c r="S2">
-        <v>3645532828</v>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3">
-        <v>2664</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>20110520</v>
-      </c>
-      <c r="J3">
-        <v>29991231</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3">
-        <v>999</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>2679</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="R3">
-        <v>4</v>
-      </c>
-      <c r="S3">
-        <v>3514878496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4">
-        <v>2666</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4">
-        <v>20110520</v>
-      </c>
-      <c r="J4">
-        <v>29991231</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4">
-        <v>999</v>
-      </c>
-      <c r="P4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4">
+      <c r="G12">
         <v>3</v>
       </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>3515219039</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5">
-        <v>2678</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>20110520</v>
-      </c>
-      <c r="J5">
-        <v>29991231</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5">
-        <v>999</v>
-      </c>
-      <c r="P5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>3544343882</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6">
-        <v>2665</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>20110520</v>
-      </c>
-      <c r="J6">
-        <v>29991231</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6">
-        <v>999</v>
-      </c>
-      <c r="P6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>5</v>
-      </c>
-      <c r="S6">
-        <v>3514878538</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7">
-        <v>2676</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <v>20110520</v>
-      </c>
-      <c r="J7">
-        <v>29991231</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7">
-        <v>999</v>
-      </c>
-      <c r="P7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-      <c r="R7">
-        <v>5</v>
-      </c>
-      <c r="S7">
-        <v>3645532893</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8">
-        <v>2663</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8">
-        <v>20110520</v>
-      </c>
-      <c r="J8">
-        <v>29991231</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8">
-        <v>999</v>
-      </c>
-      <c r="P8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>3544343288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="H12" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9">
-        <v>2677</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9">
-        <v>20110520</v>
-      </c>
-      <c r="J9">
-        <v>29991231</v>
-      </c>
-      <c r="K9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9">
-        <v>999</v>
-      </c>
-      <c r="P9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>3574225120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10">
-        <v>2679</v>
-      </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10">
-        <v>20110520</v>
-      </c>
-      <c r="J10">
-        <v>29991231</v>
-      </c>
-      <c r="K10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10">
-        <v>999</v>
-      </c>
-      <c r="P10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>3</v>
-      </c>
-      <c r="S10">
-        <v>3514878949</v>
       </c>
     </row>
   </sheetData>
